--- a/ConceptMap-R5-ImplementationGuide-elements-for-R4-ImplementationGuide.xlsx
+++ b/ConceptMap-R5-ImplementationGuide-elements-for-R4-ImplementationGuide.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="219">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.072432-06:00</t>
+    <t>2026-02-09T22:05:43.9466754-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,9 +174,6 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>Basic.identifier</t>
-  </si>
-  <si>
     <t>ImplementationGuide.version</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>versionAlgorithm[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.versionAlgorithm</t>
-  </si>
-  <si>
     <t>ImplementationGuide.name</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.title</t>
-  </si>
-  <si>
     <t>ImplementationGuide.status</t>
   </si>
   <si>
@@ -294,9 +285,6 @@
     <t>purpose</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.purpose</t>
-  </si>
-  <si>
     <t>ImplementationGuide.copyright</t>
   </si>
   <si>
@@ -312,9 +300,6 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.copyrightLabel</t>
-  </si>
-  <si>
     <t>ImplementationGuide.packageId</t>
   </si>
   <si>
@@ -324,9 +309,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.packageId</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.packageId</t>
-  </si>
-  <si>
     <t>ImplementationGuide.license</t>
   </si>
   <si>
@@ -336,9 +318,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.license</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.license</t>
-  </si>
-  <si>
     <t>ImplementationGuide.fhirVersion</t>
   </si>
   <si>
@@ -357,9 +336,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.dependsOn</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.dependency</t>
-  </si>
-  <si>
     <t>ImplementationGuide.dependsOn.uri</t>
   </si>
   <si>
@@ -369,9 +345,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.dependsOn.uri</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.dependency.uri</t>
-  </si>
-  <si>
     <t>ImplementationGuide.dependsOn.packageId</t>
   </si>
   <si>
@@ -390,9 +363,6 @@
     <t>reason</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.dependsOn.reason</t>
-  </si>
-  <si>
     <t>ImplementationGuide.global</t>
   </si>
   <si>
@@ -429,9 +399,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.grouping</t>
   </si>
   <si>
@@ -441,27 +408,18 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.grouping</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.package</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.grouping.name</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.grouping.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.package.name</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.grouping.description</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.grouping.description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.package.description</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.resource</t>
   </si>
   <si>
@@ -471,9 +429,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.resource</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.package.resource</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.resource.reference</t>
   </si>
   <si>
@@ -483,9 +438,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.resource.reference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.package.resource.source[x]</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.resource.fhirVersion</t>
   </si>
   <si>
@@ -498,18 +450,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.resource.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.package.resource.name</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.resource.description</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.resource.description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.package.resource.description</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.resource.isExample</t>
   </si>
   <si>
@@ -519,12 +465,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.resource.example[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.package.resource.example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.package.resource.exampleFor</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.resource.profile</t>
   </si>
   <si>
@@ -546,39 +486,24 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.page</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.page.source[x]</t>
   </si>
   <si>
     <t>source[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page.source</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page:source</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.page.name</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.page.name[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page:name</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.page.title</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.page.title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page:title</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.page.generation</t>
   </si>
   <si>
@@ -588,18 +513,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.page.generation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page:generation</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.page.page</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.page.page</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page:page</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.parameter</t>
   </si>
   <si>
@@ -609,9 +528,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.parameter</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.parameter</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.parameter.code</t>
   </si>
   <si>
@@ -621,9 +537,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.parameter.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.parameter:code</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.parameter.value</t>
   </si>
   <si>
@@ -633,9 +546,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.parameter.value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.parameter:value</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.template</t>
   </si>
   <si>
@@ -645,18 +555,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.template</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.template</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.template.code</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.template.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.template:code</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.template.source</t>
   </si>
   <si>
@@ -666,9 +570,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.template.source</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.template:source</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.template.scope</t>
   </si>
   <si>
@@ -678,9 +579,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.definition.template.scope</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.template:scope</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest</t>
   </si>
   <si>
@@ -690,9 +588,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.rendering</t>
   </si>
   <si>
@@ -702,42 +597,27 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.rendering</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest:rendering</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.resource</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.resource</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest.resource</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.resource.reference</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.resource.reference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest.resource:reference</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.resource.isExample</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.resource.example[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest.resource:isExample</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.resource.profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest.resource:profile</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.resource.relativePath</t>
   </si>
   <si>
@@ -747,39 +627,24 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.resource.relativePath</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest:http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest.resource:relativePath</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.page</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.page</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.page</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.page.name</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.page.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.page.source</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.page.title</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.page.title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.page.title</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.page.name</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.page.anchor</t>
   </si>
   <si>
@@ -798,9 +663,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.image</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest:image</t>
-  </si>
-  <si>
     <t>ImplementationGuide.manifest.other</t>
   </si>
   <si>
@@ -808,9 +670,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.manifest.other</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide#ImplementationGuide.binary</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +926,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1205,68 +1064,68 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -1374,1309 +1233,672 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E74" s="2"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="E123" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-ImplementationGuide-elements-for-R4-ImplementationGuide.xlsx
+++ b/ConceptMap-R5-ImplementationGuide-elements-for-R4-ImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.9466754-06:00</t>
+    <t>2026-02-17T14:42:27.316889-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
